--- a/biology/Botanique/Jardin_de_la_Villa_Balestra/Jardin_de_la_Villa_Balestra.xlsx
+++ b/biology/Botanique/Jardin_de_la_Villa_Balestra/Jardin_de_la_Villa_Balestra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 À Rome, sur la colline des monts Parioli, se dresse la Villa Balestra, datée de 1887, et propriété d’un centre d’études international.
@@ -515,7 +527,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lotissement de G. Balestra, musicien et mécène romain, atteignit son extension maximum en 1900, lorsqu’il acquit de son voisin, don Fabrizio Colonna, le palais dit « du Pape Jules » ainsi qu’un terrain potager de plus de 6 hectares, les annexant à son patrimoine. Les problèmes de viabilité liés à l'exposition internationale de l’Art de 1911, obligèrent l’expropriation d’une partie du terrain sur demande de la commune de Rome. Dans les décennies suivantes, la progressive urbanisation de la colline eut pour conséquence le morcellement systématique du domaine (et indirectement la mise à jour de nombreuses pièces archéologiques notamment des sarcophages). Un plan cadastral de 1955 de la ville de Rome fixa une dernière fois l’image de la propriété de G. Balestra avant sa presque totale urbanisation.
 </t>
